--- a/ExecutionTestData/RerunBatch2/TestData.xlsx
+++ b/ExecutionTestData/RerunBatch2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace\DBS_Automation\ExecutionTestData\RerunBatch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\batche8feb\RerunBatch5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="161">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,15 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -479,49 +473,55 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
-  </si>
-  <si>
-    <t>VIVO_Y17_Android_9.0.0_41f40</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoE7Power_Android_10.0.0_a2201</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG5_Android_8.1.0_c3d6c</t>
-  </si>
-  <si>
-    <t>NOKIA_2.3_Android_10.0.0_8c175</t>
-  </si>
-  <si>
-    <t>OPPO_A3s_Android_8.1.0_37894</t>
-  </si>
-  <si>
-    <t>OPPO_Realme2_Android_9.0.0_911fd</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ6_Android_10.0.0_482da</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyJ7Prime_Android_8.1.0_78777</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyOnMax_Android_8.1.0_85564</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13Pro_iOS_15.2.0_2d8ea</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13Pro_iOS_15.0.0_2d2ae</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.0.1_aa631</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12ProMax_iOS_14.6.0_de280</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
+  </si>
+  <si>
+    <t>15.2.1</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -623,23 +623,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.59999389629810485"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,16 +680,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1112,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1162,7 +1148,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1209,208 +1195,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="20" width="17.140625" style="12"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="7" max="9" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I1" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1418,309 +1304,144 @@
         <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1728,61 +1449,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
         <v>9</v>
       </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1810,49 +1498,16 @@
       <c r="I10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T2">
+  <conditionalFormatting sqref="B2:I2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:T2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,7 +1610,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2020,7 +1675,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2136,7 +1791,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2162,7 +1817,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
